--- a/cp-descriptionsummary/ig/StructureDefinition-eclaire-description-summary-r5.xlsx
+++ b/cp-descriptionsummary/ig/StructureDefinition-eclaire-description-summary-r5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T16:28:48+00:00</t>
+    <t>2025-07-25T15:12:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -287,21 +287,11 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -317,9 +307,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -336,11 +323,14 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+    <t xml:space="preserve">markdown
+</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -673,14 +663,14 @@
     <col min="1" max="1" width="16.80078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.1875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1036,14 +1026,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
@@ -1055,17 +1045,15 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>93</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>75</v>
@@ -1102,19 +1090,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1129,15 +1117,15 @@
         <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1160,16 +1148,16 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1219,7 +1207,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
@@ -1234,15 +1222,15 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1265,13 +1253,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1322,7 +1310,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1334,10 +1322,10 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
